--- a/quiz/quiz01_country_flag.xlsx
+++ b/quiz/quiz01_country_flag.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OpenCV\mediapipe-gui-quiz\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python_Project\mediapipe-quiz\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D743DD1-FACA-4AB7-B81E-314131D5FB32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253773AF-408E-451D-ADA0-0185F3D36719}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,10 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문제 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -822,6 +818,10 @@
   <si>
     <t>타입
 o/c/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14090,7 +14090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:H5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14180,7 +14180,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>164</v>
@@ -14249,7 +14249,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
@@ -14313,12 +14313,12 @@
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -14381,7 +14381,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -14390,7 +14390,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>6</v>
@@ -14587,52 +14587,52 @@
         <v>24</v>
       </c>
       <c r="M6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="V6" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="W6" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC6" s="11" t="s">
         <v>42</v>
@@ -14731,52 +14731,52 @@
         <v>24</v>
       </c>
       <c r="M7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="U7" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="V7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="W7" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="X7" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Z7" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AA7" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AB7" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC7" s="11" t="s">
         <v>42</v>
@@ -14871,52 +14871,52 @@
         <v>24</v>
       </c>
       <c r="M8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="T8" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="U8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="W8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Z8" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AA8" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AB8" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC8" s="11" t="s">
         <v>42</v>
@@ -15015,52 +15015,52 @@
         <v>24</v>
       </c>
       <c r="M9" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Z9" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="AA9" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AB9" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC9" s="11" t="s">
         <v>42</v>
@@ -15154,52 +15154,52 @@
         <v>22</v>
       </c>
       <c r="M10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AB10" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC10" s="11" t="s">
         <v>42</v>
@@ -15293,52 +15293,52 @@
         <v>24</v>
       </c>
       <c r="M11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="O11" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="P11" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="Q11" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="S11" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="T11" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="U11" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="X11" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="Y11" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Z11" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AB11" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC11" s="11" t="s">
         <v>42</v>
@@ -15447,37 +15447,37 @@
         <v>23</v>
       </c>
       <c r="R12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X12" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="Y12" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="AA12" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA12" s="11" t="s">
+      <c r="AB12" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC12" s="11" t="s">
         <v>42</v>
@@ -15586,37 +15586,37 @@
         <v>23</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="T13" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="X13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="Y13" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA13" s="11" t="s">
+      <c r="AB13" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC13" s="11" t="s">
         <v>42</v>
@@ -15725,37 +15725,37 @@
         <v>23</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="Y14" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA14" s="11" t="s">
+      <c r="AB14" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC14" s="11" t="s">
         <v>42</v>
@@ -15864,37 +15864,37 @@
         <v>23</v>
       </c>
       <c r="R15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA15" s="11" t="s">
+      <c r="AB15" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC15" s="11" t="s">
         <v>42</v>
@@ -16003,37 +16003,37 @@
         <v>23</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="X16" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="Y16" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Z16" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AB16" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="AB16" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="AC16" s="11" t="s">
         <v>42</v>
@@ -16135,19 +16135,19 @@
         <v>23</v>
       </c>
       <c r="S17" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>42</v>
@@ -16264,19 +16264,19 @@
         <v>23</v>
       </c>
       <c r="S18" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="V18" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>42</v>
@@ -16393,19 +16393,19 @@
         <v>23</v>
       </c>
       <c r="S19" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="T19" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>42</v>
@@ -16522,19 +16522,19 @@
         <v>23</v>
       </c>
       <c r="S20" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="T20" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="V20" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>42</v>
@@ -16651,19 +16651,19 @@
         <v>23</v>
       </c>
       <c r="S21" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>42</v>
@@ -16780,19 +16780,19 @@
         <v>23</v>
       </c>
       <c r="S22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="T22" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="U22" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="V22" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="W22" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="W22" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>42</v>
@@ -16901,37 +16901,37 @@
         <v>23</v>
       </c>
       <c r="P23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="R23" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="T23" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="U23" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="V23" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="W23" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="X23" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X23" s="11" t="s">
+      <c r="Y23" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA23" s="11" t="s">
         <v>58</v>
@@ -17031,37 +17031,37 @@
         <v>23</v>
       </c>
       <c r="P24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="R24" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="S24" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="T24" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="U24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="V24" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="W24" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="X24" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="Y24" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA24" s="11" t="s">
         <v>58</v>
@@ -17161,37 +17161,37 @@
         <v>23</v>
       </c>
       <c r="P25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="R25" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="S25" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="T25" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T25" s="11" t="s">
+      <c r="U25" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U25" s="11" t="s">
+      <c r="V25" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="W25" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="X25" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X25" s="11" t="s">
+      <c r="Y25" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Z25" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA25" s="11" t="s">
         <v>58</v>
@@ -17291,37 +17291,37 @@
         <v>23</v>
       </c>
       <c r="P26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="R26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="S26" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="T26" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="U26" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U26" s="11" t="s">
+      <c r="V26" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="W26" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="X26" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X26" s="11" t="s">
+      <c r="Y26" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="Z26" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA26" s="11" t="s">
         <v>58</v>
@@ -17421,37 +17421,37 @@
         <v>23</v>
       </c>
       <c r="P27" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q27" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="R27" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="S27" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S27" s="11" t="s">
+      <c r="T27" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="U27" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U27" s="11" t="s">
+      <c r="V27" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V27" s="11" t="s">
+      <c r="W27" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="X27" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X27" s="11" t="s">
+      <c r="Y27" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="Z27" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA27" s="11" t="s">
         <v>58</v>
@@ -17551,37 +17551,37 @@
         <v>23</v>
       </c>
       <c r="P28" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="R28" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="S28" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="U28" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U28" s="11" t="s">
+      <c r="V28" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="W28" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="X28" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X28" s="11" t="s">
+      <c r="Y28" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y28" s="11" t="s">
+      <c r="Z28" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA28" s="11" t="s">
         <v>58</v>
@@ -17681,37 +17681,37 @@
         <v>23</v>
       </c>
       <c r="P29" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q29" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="R29" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="S29" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S29" s="11" t="s">
+      <c r="T29" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="U29" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U29" s="11" t="s">
+      <c r="V29" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V29" s="11" t="s">
+      <c r="W29" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W29" s="11" t="s">
+      <c r="X29" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="Y29" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y29" s="11" t="s">
+      <c r="Z29" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA29" s="11" t="s">
         <v>58</v>
@@ -17811,37 +17811,37 @@
         <v>23</v>
       </c>
       <c r="P30" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q30" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="R30" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="S30" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="T30" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="U30" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U30" s="11" t="s">
+      <c r="V30" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="11" t="s">
+      <c r="W30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W30" s="11" t="s">
+      <c r="X30" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X30" s="11" t="s">
+      <c r="Y30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y30" s="11" t="s">
+      <c r="Z30" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA30" s="11" t="s">
         <v>58</v>
@@ -17944,22 +17944,22 @@
         <v>79</v>
       </c>
       <c r="W31" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X31" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X31" s="11" t="s">
+      <c r="Y31" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y31" s="11" t="s">
+      <c r="Z31" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z31" s="11" t="s">
+      <c r="AA31" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA31" s="11" t="s">
+      <c r="AB31" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AB31" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
@@ -18056,22 +18056,22 @@
         <v>79</v>
       </c>
       <c r="W32" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X32" s="11" t="s">
+      <c r="Y32" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y32" s="11" t="s">
+      <c r="Z32" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z32" s="11" t="s">
+      <c r="AA32" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA32" s="11" t="s">
+      <c r="AB32" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AB32" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
@@ -18168,22 +18168,22 @@
         <v>79</v>
       </c>
       <c r="W33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X33" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X33" s="11" t="s">
+      <c r="Y33" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y33" s="11" t="s">
+      <c r="Z33" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z33" s="11" t="s">
+      <c r="AA33" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA33" s="11" t="s">
+      <c r="AB33" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AB33" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
@@ -18280,22 +18280,22 @@
         <v>79</v>
       </c>
       <c r="W34" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X34" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X34" s="11" t="s">
+      <c r="Y34" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y34" s="11" t="s">
+      <c r="Z34" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z34" s="11" t="s">
+      <c r="AA34" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA34" s="11" t="s">
+      <c r="AB34" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AB34" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
@@ -18392,22 +18392,22 @@
         <v>79</v>
       </c>
       <c r="W35" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X35" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X35" s="11" t="s">
+      <c r="Y35" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y35" s="11" t="s">
+      <c r="Z35" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z35" s="11" t="s">
+      <c r="AA35" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA35" s="11" t="s">
+      <c r="AB35" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AB35" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
@@ -18503,22 +18503,22 @@
         <v>79</v>
       </c>
       <c r="W36" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X36" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X36" s="11" t="s">
+      <c r="Y36" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y36" s="11" t="s">
+      <c r="Z36" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z36" s="11" t="s">
+      <c r="AA36" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB36" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="AA36" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB36" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
@@ -18615,22 +18615,22 @@
         <v>79</v>
       </c>
       <c r="W37" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X37" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X37" s="11" t="s">
+      <c r="Y37" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y37" s="11" t="s">
+      <c r="Z37" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z37" s="11" t="s">
+      <c r="AA37" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA37" s="11" t="s">
+      <c r="AB37" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AB37" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
@@ -18727,22 +18727,22 @@
         <v>79</v>
       </c>
       <c r="W38" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X38" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X38" s="11" t="s">
+      <c r="Y38" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y38" s="11" t="s">
+      <c r="Z38" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z38" s="11" t="s">
+      <c r="AA38" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA38" s="11" t="s">
+      <c r="AB38" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AB38" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
@@ -18839,22 +18839,22 @@
         <v>79</v>
       </c>
       <c r="W39" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X39" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X39" s="11" t="s">
+      <c r="Y39" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y39" s="11" t="s">
+      <c r="Z39" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z39" s="11" t="s">
+      <c r="AA39" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA39" s="11" t="s">
+      <c r="AB39" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AB39" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
@@ -18951,28 +18951,28 @@
         <v>79</v>
       </c>
       <c r="W40" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X40" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="X40" s="11" t="s">
+      <c r="Y40" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Y40" s="11" t="s">
+      <c r="Z40" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z40" s="11" t="s">
+      <c r="AA40" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AA40" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="AB40" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC40" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AC40" s="11" t="s">
+      <c r="AD40" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AD40" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AE40" s="11" t="s">
         <v>134</v>
@@ -18981,13 +18981,13 @@
         <v>136</v>
       </c>
       <c r="AG40" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH40" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH40" s="11" t="s">
+      <c r="AI40" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI40" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ40" s="11" t="s">
         <v>141</v>
@@ -19095,28 +19095,28 @@
         <v>56</v>
       </c>
       <c r="W41" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X41" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="X41" s="11" t="s">
+      <c r="Y41" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Y41" s="11" t="s">
+      <c r="Z41" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Z41" s="11" t="s">
+      <c r="AA41" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AA41" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="AB41" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC41" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AC41" s="11" t="s">
+      <c r="AD41" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AD41" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AE41" s="11" t="s">
         <v>134</v>
@@ -19125,13 +19125,13 @@
         <v>136</v>
       </c>
       <c r="AG41" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH41" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH41" s="11" t="s">
+      <c r="AI41" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI41" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ41" s="11" t="s">
         <v>141</v>
@@ -19239,28 +19239,28 @@
         <v>56</v>
       </c>
       <c r="W42" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X42" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="X42" s="11" t="s">
+      <c r="Y42" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Y42" s="11" t="s">
+      <c r="Z42" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Z42" s="11" t="s">
+      <c r="AA42" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AA42" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="AB42" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC42" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AC42" s="11" t="s">
+      <c r="AD42" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AD42" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AE42" s="11" t="s">
         <v>134</v>
@@ -19269,13 +19269,13 @@
         <v>136</v>
       </c>
       <c r="AG42" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH42" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH42" s="11" t="s">
+      <c r="AI42" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI42" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ42" s="11" t="s">
         <v>141</v>
@@ -19383,28 +19383,28 @@
         <v>56</v>
       </c>
       <c r="W43" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X43" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="X43" s="11" t="s">
+      <c r="Y43" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Y43" s="11" t="s">
+      <c r="Z43" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Z43" s="11" t="s">
+      <c r="AA43" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AA43" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="AB43" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC43" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AC43" s="11" t="s">
+      <c r="AD43" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AD43" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AE43" s="11" t="s">
         <v>134</v>
@@ -19413,13 +19413,13 @@
         <v>136</v>
       </c>
       <c r="AG43" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH43" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH43" s="11" t="s">
+      <c r="AI43" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI43" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ43" s="11" t="s">
         <v>141</v>
@@ -19527,28 +19527,28 @@
         <v>56</v>
       </c>
       <c r="W44" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X44" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="X44" s="11" t="s">
+      <c r="Y44" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Y44" s="11" t="s">
+      <c r="Z44" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Z44" s="11" t="s">
+      <c r="AA44" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AA44" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="AB44" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC44" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AC44" s="11" t="s">
+      <c r="AD44" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AD44" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AE44" s="11" t="s">
         <v>134</v>
@@ -19557,13 +19557,13 @@
         <v>136</v>
       </c>
       <c r="AG44" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH44" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH44" s="11" t="s">
+      <c r="AI44" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI44" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ44" s="11" t="s">
         <v>141</v>
@@ -19671,28 +19671,28 @@
         <v>56</v>
       </c>
       <c r="W45" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X45" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="X45" s="11" t="s">
+      <c r="Y45" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Y45" s="11" t="s">
+      <c r="Z45" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Z45" s="11" t="s">
+      <c r="AA45" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AA45" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="AB45" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC45" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AC45" s="11" t="s">
+      <c r="AD45" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AD45" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AE45" s="11" t="s">
         <v>134</v>
@@ -19701,13 +19701,13 @@
         <v>136</v>
       </c>
       <c r="AG45" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH45" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH45" s="11" t="s">
+      <c r="AI45" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI45" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ45" s="11" t="s">
         <v>141</v>
@@ -19815,28 +19815,28 @@
         <v>56</v>
       </c>
       <c r="W46" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X46" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="X46" s="11" t="s">
+      <c r="Y46" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Y46" s="11" t="s">
+      <c r="Z46" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Z46" s="11" t="s">
+      <c r="AA46" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AA46" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="AB46" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC46" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AC46" s="11" t="s">
+      <c r="AD46" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AD46" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AE46" s="11" t="s">
         <v>134</v>
@@ -19845,13 +19845,13 @@
         <v>136</v>
       </c>
       <c r="AG46" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH46" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH46" s="11" t="s">
+      <c r="AI46" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI46" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ46" s="11" t="s">
         <v>141</v>
@@ -19956,13 +19956,13 @@
         <v>54</v>
       </c>
       <c r="V47" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="W47" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="W47" s="11" t="s">
+      <c r="X47" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="Y47" s="11" t="s">
         <v>134</v>
@@ -19971,13 +19971,13 @@
         <v>136</v>
       </c>
       <c r="AA47" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB47" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB47" s="11" t="s">
+      <c r="AC47" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AC47" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AD47" s="11" t="s">
         <v>141</v>
@@ -20090,13 +20090,13 @@
         <v>54</v>
       </c>
       <c r="V48" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="W48" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="W48" s="11" t="s">
+      <c r="X48" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="Y48" s="11" t="s">
         <v>134</v>
@@ -20105,13 +20105,13 @@
         <v>136</v>
       </c>
       <c r="AA48" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB48" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB48" s="11" t="s">
+      <c r="AC48" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AC48" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AD48" s="11" t="s">
         <v>141</v>
@@ -20224,13 +20224,13 @@
         <v>54</v>
       </c>
       <c r="V49" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="W49" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="W49" s="11" t="s">
+      <c r="X49" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="Y49" s="11" t="s">
         <v>134</v>
@@ -20239,13 +20239,13 @@
         <v>136</v>
       </c>
       <c r="AA49" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB49" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB49" s="11" t="s">
+      <c r="AC49" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AC49" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AD49" s="11" t="s">
         <v>141</v>
@@ -20358,13 +20358,13 @@
         <v>54</v>
       </c>
       <c r="V50" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="W50" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="W50" s="11" t="s">
+      <c r="X50" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="Y50" s="11" t="s">
         <v>134</v>
@@ -20373,13 +20373,13 @@
         <v>136</v>
       </c>
       <c r="AA50" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB50" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB50" s="11" t="s">
+      <c r="AC50" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AC50" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AD50" s="11" t="s">
         <v>141</v>
@@ -20492,13 +20492,13 @@
         <v>54</v>
       </c>
       <c r="V51" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="W51" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="W51" s="11" t="s">
+      <c r="X51" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="Y51" s="11" t="s">
         <v>134</v>
@@ -20507,13 +20507,13 @@
         <v>136</v>
       </c>
       <c r="AA51" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB51" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB51" s="11" t="s">
+      <c r="AC51" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AC51" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AD51" s="11" t="s">
         <v>141</v>
@@ -20623,31 +20623,31 @@
         <v>56</v>
       </c>
       <c r="U52" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="V52" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="V52" s="11" t="s">
+      <c r="W52" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="W52" s="11" t="s">
+      <c r="X52" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="X52" s="11" t="s">
+      <c r="Y52" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="Y52" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="Z52" s="11" t="s">
         <v>136</v>
       </c>
       <c r="AA52" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB52" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB52" s="11" t="s">
+      <c r="AC52" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AC52" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AD52" s="11" t="s">
         <v>141</v>
@@ -20755,31 +20755,31 @@
         <v>56</v>
       </c>
       <c r="U53" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="V53" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="V53" s="11" t="s">
+      <c r="W53" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="W53" s="11" t="s">
+      <c r="X53" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="X53" s="11" t="s">
+      <c r="Y53" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="Y53" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="Z53" s="11" t="s">
         <v>136</v>
       </c>
       <c r="AA53" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB53" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB53" s="11" t="s">
+      <c r="AC53" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AC53" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AD53" s="11" t="s">
         <v>141</v>
@@ -20887,31 +20887,31 @@
         <v>56</v>
       </c>
       <c r="U54" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="V54" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="V54" s="11" t="s">
+      <c r="W54" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="W54" s="11" t="s">
+      <c r="X54" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="X54" s="11" t="s">
+      <c r="Y54" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="Y54" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="Z54" s="11" t="s">
         <v>136</v>
       </c>
       <c r="AA54" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB54" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB54" s="11" t="s">
+      <c r="AC54" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AC54" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AD54" s="11" t="s">
         <v>141</v>
@@ -21040,19 +21040,19 @@
         <v>56</v>
       </c>
       <c r="AB55" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC55" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AC55" s="11" t="s">
+      <c r="AD55" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AD55" s="11" t="s">
+      <c r="AE55" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AE55" s="11" t="s">
+      <c r="AF55" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AF55" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AG55" s="11"/>
       <c r="AH55" s="11"/>
@@ -21160,19 +21160,19 @@
         <v>56</v>
       </c>
       <c r="AB56" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC56" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AC56" s="11" t="s">
+      <c r="AD56" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AD56" s="11" t="s">
+      <c r="AE56" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AE56" s="11" t="s">
+      <c r="AF56" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AF56" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AG56" s="11"/>
       <c r="AH56" s="11"/>
@@ -21280,19 +21280,19 @@
         <v>56</v>
       </c>
       <c r="AB57" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC57" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AC57" s="11" t="s">
+      <c r="AD57" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AD57" s="11" t="s">
+      <c r="AE57" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AE57" s="11" t="s">
+      <c r="AF57" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AF57" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AG57" s="11"/>
       <c r="AH57" s="11"/>
@@ -21400,19 +21400,19 @@
         <v>56</v>
       </c>
       <c r="AB58" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC58" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AC58" s="11" t="s">
+      <c r="AD58" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AD58" s="11" t="s">
+      <c r="AE58" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AE58" s="11" t="s">
+      <c r="AF58" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AF58" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AG58" s="11"/>
       <c r="AH58" s="11"/>
@@ -21520,19 +21520,19 @@
         <v>56</v>
       </c>
       <c r="AB59" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC59" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AC59" s="11" t="s">
+      <c r="AD59" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AD59" s="11" t="s">
+      <c r="AE59" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AE59" s="11" t="s">
+      <c r="AF59" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AF59" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AG59" s="11"/>
       <c r="AH59" s="11"/>
@@ -21640,19 +21640,19 @@
         <v>56</v>
       </c>
       <c r="AB60" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC60" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AC60" s="11" t="s">
+      <c r="AD60" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AD60" s="11" t="s">
+      <c r="AE60" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AE60" s="11" t="s">
+      <c r="AF60" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AF60" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AG60" s="11"/>
       <c r="AH60" s="11"/>
@@ -21757,19 +21757,19 @@
         <v>56</v>
       </c>
       <c r="AA61" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB61" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB61" s="11" t="s">
+      <c r="AC61" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC61" s="11" t="s">
+      <c r="AD61" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD61" s="11" t="s">
+      <c r="AE61" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE61" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF61" s="11"/>
       <c r="AG61" s="11"/>
@@ -21875,19 +21875,19 @@
         <v>56</v>
       </c>
       <c r="AA62" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB62" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB62" s="11" t="s">
+      <c r="AC62" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC62" s="11" t="s">
+      <c r="AD62" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD62" s="11" t="s">
+      <c r="AE62" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE62" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF62" s="11"/>
       <c r="AG62" s="11"/>
@@ -21993,19 +21993,19 @@
         <v>56</v>
       </c>
       <c r="AA63" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB63" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB63" s="11" t="s">
+      <c r="AC63" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC63" s="11" t="s">
+      <c r="AD63" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD63" s="11" t="s">
+      <c r="AE63" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE63" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF63" s="11"/>
       <c r="AG63" s="11"/>
@@ -22111,19 +22111,19 @@
         <v>56</v>
       </c>
       <c r="AA64" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB64" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB64" s="11" t="s">
+      <c r="AC64" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC64" s="11" t="s">
+      <c r="AD64" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD64" s="11" t="s">
+      <c r="AE64" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE64" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF64" s="11"/>
       <c r="AG64" s="11"/>
@@ -22229,19 +22229,19 @@
         <v>56</v>
       </c>
       <c r="AA65" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB65" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB65" s="11" t="s">
+      <c r="AC65" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC65" s="11" t="s">
+      <c r="AD65" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD65" s="11" t="s">
+      <c r="AE65" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE65" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF65" s="11"/>
       <c r="AG65" s="11"/>
@@ -22347,19 +22347,19 @@
         <v>56</v>
       </c>
       <c r="AA66" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB66" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB66" s="11" t="s">
+      <c r="AC66" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC66" s="11" t="s">
+      <c r="AD66" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD66" s="11" t="s">
+      <c r="AE66" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE66" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF66" s="11"/>
       <c r="AG66" s="11"/>
@@ -22465,19 +22465,19 @@
         <v>56</v>
       </c>
       <c r="AA67" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB67" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB67" s="11" t="s">
+      <c r="AC67" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC67" s="11" t="s">
+      <c r="AD67" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD67" s="11" t="s">
+      <c r="AE67" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE67" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF67" s="11"/>
       <c r="AG67" s="11"/>
@@ -22583,19 +22583,19 @@
         <v>56</v>
       </c>
       <c r="AA68" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB68" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB68" s="11" t="s">
+      <c r="AC68" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC68" s="11" t="s">
+      <c r="AD68" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD68" s="11" t="s">
+      <c r="AE68" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE68" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF68" s="11"/>
       <c r="AG68" s="11"/>
@@ -22701,19 +22701,19 @@
         <v>56</v>
       </c>
       <c r="AA69" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB69" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AB69" s="11" t="s">
+      <c r="AC69" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AC69" s="11" t="s">
+      <c r="AD69" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AD69" s="11" t="s">
+      <c r="AE69" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AE69" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AF69" s="11"/>
       <c r="AG69" s="11"/>
@@ -22777,10 +22777,10 @@
         <v>116</v>
       </c>
       <c r="M70" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="N70" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>94</v>
@@ -22828,19 +22828,19 @@
         <v>56</v>
       </c>
       <c r="AD70" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE70" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE70" s="11" t="s">
+      <c r="AF70" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF70" s="11" t="s">
+      <c r="AG70" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG70" s="11" t="s">
+      <c r="AH70" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH70" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI70" s="11"/>
       <c r="AJ70" s="11"/>
@@ -22901,10 +22901,10 @@
         <v>116</v>
       </c>
       <c r="M71" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="N71" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="N71" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="O71" s="11" t="s">
         <v>94</v>
@@ -22952,19 +22952,19 @@
         <v>56</v>
       </c>
       <c r="AD71" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE71" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE71" s="11" t="s">
+      <c r="AF71" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF71" s="11" t="s">
+      <c r="AG71" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG71" s="11" t="s">
+      <c r="AH71" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH71" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
@@ -23025,10 +23025,10 @@
         <v>116</v>
       </c>
       <c r="M72" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="N72" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="N72" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="O72" s="11" t="s">
         <v>94</v>
@@ -23076,19 +23076,19 @@
         <v>56</v>
       </c>
       <c r="AD72" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE72" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE72" s="11" t="s">
+      <c r="AF72" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF72" s="11" t="s">
+      <c r="AG72" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG72" s="11" t="s">
+      <c r="AH72" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH72" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI72" s="11"/>
       <c r="AJ72" s="11"/>
@@ -23200,19 +23200,19 @@
         <v>56</v>
       </c>
       <c r="AD73" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE73" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE73" s="11" t="s">
+      <c r="AF73" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF73" s="11" t="s">
+      <c r="AG73" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG73" s="11" t="s">
+      <c r="AH73" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH73" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
@@ -23324,19 +23324,19 @@
         <v>56</v>
       </c>
       <c r="AD74" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE74" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE74" s="11" t="s">
+      <c r="AF74" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF74" s="11" t="s">
+      <c r="AG74" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG74" s="11" t="s">
+      <c r="AH74" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH74" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI74" s="11"/>
       <c r="AJ74" s="11"/>
@@ -23397,10 +23397,10 @@
         <v>113</v>
       </c>
       <c r="M75" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="N75" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>94</v>
@@ -23448,19 +23448,19 @@
         <v>56</v>
       </c>
       <c r="AD75" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE75" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE75" s="11" t="s">
+      <c r="AF75" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF75" s="11" t="s">
+      <c r="AG75" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG75" s="11" t="s">
+      <c r="AH75" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH75" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI75" s="11"/>
       <c r="AJ75" s="11"/>
@@ -23521,10 +23521,10 @@
         <v>113</v>
       </c>
       <c r="M76" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="N76" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>94</v>
@@ -23572,19 +23572,19 @@
         <v>56</v>
       </c>
       <c r="AD76" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE76" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE76" s="11" t="s">
+      <c r="AF76" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF76" s="11" t="s">
+      <c r="AG76" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG76" s="11" t="s">
+      <c r="AH76" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH76" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI76" s="11"/>
       <c r="AJ76" s="11"/>
@@ -23645,10 +23645,10 @@
         <v>113</v>
       </c>
       <c r="M77" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="N77" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="O77" s="11" t="s">
         <v>94</v>
@@ -23696,19 +23696,19 @@
         <v>56</v>
       </c>
       <c r="AD77" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE77" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE77" s="11" t="s">
+      <c r="AF77" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF77" s="11" t="s">
+      <c r="AG77" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG77" s="11" t="s">
+      <c r="AH77" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH77" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI77" s="11"/>
       <c r="AJ77" s="11"/>
@@ -23769,10 +23769,10 @@
         <v>113</v>
       </c>
       <c r="M78" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="N78" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="N78" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="O78" s="11" t="s">
         <v>103</v>
@@ -23820,19 +23820,19 @@
         <v>56</v>
       </c>
       <c r="AD78" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE78" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE78" s="11" t="s">
+      <c r="AF78" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF78" s="11" t="s">
+      <c r="AG78" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG78" s="11" t="s">
+      <c r="AH78" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH78" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI78" s="11"/>
       <c r="AJ78" s="11"/>
@@ -23893,10 +23893,10 @@
         <v>113</v>
       </c>
       <c r="M79" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="N79" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="N79" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="O79" s="11" t="s">
         <v>103</v>
@@ -23944,19 +23944,19 @@
         <v>56</v>
       </c>
       <c r="AD79" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE79" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE79" s="11" t="s">
+      <c r="AF79" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF79" s="11" t="s">
+      <c r="AG79" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG79" s="11" t="s">
+      <c r="AH79" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH79" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI79" s="11"/>
       <c r="AJ79" s="11"/>
@@ -24068,19 +24068,19 @@
         <v>56</v>
       </c>
       <c r="AD80" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE80" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE80" s="11" t="s">
+      <c r="AF80" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF80" s="11" t="s">
+      <c r="AG80" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG80" s="11" t="s">
+      <c r="AH80" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH80" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI80" s="11"/>
       <c r="AJ80" s="11"/>
@@ -24192,19 +24192,19 @@
         <v>56</v>
       </c>
       <c r="AD81" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE81" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE81" s="11" t="s">
+      <c r="AF81" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF81" s="11" t="s">
+      <c r="AG81" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG81" s="11" t="s">
+      <c r="AH81" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH81" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI81" s="11"/>
       <c r="AJ81" s="11"/>
@@ -24316,19 +24316,19 @@
         <v>56</v>
       </c>
       <c r="AD82" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE82" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE82" s="11" t="s">
+      <c r="AF82" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF82" s="11" t="s">
+      <c r="AG82" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG82" s="11" t="s">
+      <c r="AH82" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH82" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI82" s="11"/>
       <c r="AJ82" s="11"/>
@@ -24440,19 +24440,19 @@
         <v>56</v>
       </c>
       <c r="AD83" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE83" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE83" s="11" t="s">
+      <c r="AF83" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF83" s="11" t="s">
+      <c r="AG83" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG83" s="11" t="s">
+      <c r="AH83" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH83" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI83" s="11"/>
       <c r="AJ83" s="11"/>
@@ -24564,19 +24564,19 @@
         <v>56</v>
       </c>
       <c r="AD84" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE84" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE84" s="11" t="s">
+      <c r="AF84" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF84" s="11" t="s">
+      <c r="AG84" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG84" s="11" t="s">
+      <c r="AH84" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH84" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI84" s="11"/>
       <c r="AJ84" s="11"/>
@@ -24688,19 +24688,19 @@
         <v>56</v>
       </c>
       <c r="AD85" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE85" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE85" s="11" t="s">
+      <c r="AF85" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF85" s="11" t="s">
+      <c r="AG85" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG85" s="11" t="s">
+      <c r="AH85" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH85" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI85" s="11"/>
       <c r="AJ85" s="11"/>
@@ -24761,13 +24761,13 @@
         <v>137</v>
       </c>
       <c r="M86" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="N86" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="O86" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="O86" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="P86" s="11" t="s">
         <v>141</v>
@@ -24776,13 +24776,13 @@
         <v>143</v>
       </c>
       <c r="R86" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="S86" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="S86" s="11" t="s">
+      <c r="T86" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="T86" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="U86" s="11" t="s">
         <v>119</v>
@@ -24839,19 +24839,19 @@
         <v>56</v>
       </c>
       <c r="AM86" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN86" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AN86" s="11" t="s">
+      <c r="AO86" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AO86" s="11" t="s">
+      <c r="AP86" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AP86" s="11" t="s">
+      <c r="AQ86" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AQ86" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AR86" s="11"/>
       <c r="AS86" s="11"/>
@@ -24903,13 +24903,13 @@
         <v>137</v>
       </c>
       <c r="M87" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="N87" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="O87" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="O87" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="P87" s="11" t="s">
         <v>141</v>
@@ -24918,13 +24918,13 @@
         <v>143</v>
       </c>
       <c r="R87" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="S87" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="S87" s="11" t="s">
+      <c r="T87" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="T87" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="U87" s="11" t="s">
         <v>119</v>
@@ -24981,19 +24981,19 @@
         <v>56</v>
       </c>
       <c r="AM87" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN87" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AN87" s="11" t="s">
+      <c r="AO87" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AO87" s="11" t="s">
+      <c r="AP87" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AP87" s="11" t="s">
+      <c r="AQ87" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AQ87" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AR87" s="11"/>
       <c r="AS87" s="11"/>
@@ -25045,13 +25045,13 @@
         <v>137</v>
       </c>
       <c r="M88" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="N88" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="O88" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="O88" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="P88" s="11" t="s">
         <v>141</v>
@@ -25060,13 +25060,13 @@
         <v>143</v>
       </c>
       <c r="R88" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="S88" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="S88" s="11" t="s">
+      <c r="T88" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="T88" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="U88" s="11" t="s">
         <v>119</v>
@@ -25123,19 +25123,19 @@
         <v>56</v>
       </c>
       <c r="AM88" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN88" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AN88" s="11" t="s">
+      <c r="AO88" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AO88" s="11" t="s">
+      <c r="AP88" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AP88" s="11" t="s">
+      <c r="AQ88" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AQ88" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AR88" s="11"/>
       <c r="AS88" s="11"/>
@@ -25187,13 +25187,13 @@
         <v>137</v>
       </c>
       <c r="M89" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="N89" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="O89" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="O89" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="P89" s="11" t="s">
         <v>141</v>
@@ -25202,10 +25202,10 @@
         <v>143</v>
       </c>
       <c r="R89" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="S89" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="S89" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="T89" s="11" t="s">
         <v>119</v>
@@ -25262,16 +25262,16 @@
         <v>56</v>
       </c>
       <c r="AL89" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM89" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AM89" s="11" t="s">
+      <c r="AN89" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AN89" s="11" t="s">
+      <c r="AO89" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AO89" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="AP89" s="11"/>
       <c r="AQ89" s="11"/>
@@ -25328,16 +25328,16 @@
         <v>144</v>
       </c>
       <c r="N90" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="O90" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="P90" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="Q90" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="Q90" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="R90" s="11" t="s">
         <v>98</v>
@@ -25400,16 +25400,16 @@
         <v>56</v>
       </c>
       <c r="AL90" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM90" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AM90" s="11" t="s">
+      <c r="AN90" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AN90" s="11" t="s">
+      <c r="AO90" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AO90" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="AP90" s="11"/>
       <c r="AQ90" s="11"/>
@@ -25466,7 +25466,7 @@
         <v>144</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O91" s="11" t="s">
         <v>103</v>
@@ -25514,19 +25514,19 @@
         <v>56</v>
       </c>
       <c r="AD91" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE91" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE91" s="11" t="s">
+      <c r="AF91" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF91" s="11" t="s">
+      <c r="AG91" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG91" s="11" t="s">
+      <c r="AH91" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH91" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI91" s="11"/>
       <c r="AJ91" s="11"/>
@@ -25590,7 +25590,7 @@
         <v>144</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O92" s="11" t="s">
         <v>103</v>
@@ -25638,19 +25638,19 @@
         <v>56</v>
       </c>
       <c r="AD92" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE92" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE92" s="11" t="s">
+      <c r="AF92" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF92" s="11" t="s">
+      <c r="AG92" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG92" s="11" t="s">
+      <c r="AH92" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH92" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI92" s="11"/>
       <c r="AJ92" s="11"/>
@@ -25714,7 +25714,7 @@
         <v>144</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O93" s="11" t="s">
         <v>103</v>
@@ -25762,19 +25762,19 @@
         <v>56</v>
       </c>
       <c r="AD93" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE93" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE93" s="11" t="s">
+      <c r="AF93" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF93" s="11" t="s">
+      <c r="AG93" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG93" s="11" t="s">
+      <c r="AH93" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH93" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI93" s="11"/>
       <c r="AJ93" s="11"/>
@@ -25838,7 +25838,7 @@
         <v>144</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O94" s="11" t="s">
         <v>103</v>
@@ -25886,19 +25886,19 @@
         <v>56</v>
       </c>
       <c r="AD94" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE94" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE94" s="11" t="s">
+      <c r="AF94" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF94" s="11" t="s">
+      <c r="AG94" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG94" s="11" t="s">
+      <c r="AH94" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH94" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI94" s="11"/>
       <c r="AJ94" s="11"/>
@@ -25962,7 +25962,7 @@
         <v>136</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O95" s="11" t="s">
         <v>103</v>
@@ -26010,19 +26010,19 @@
         <v>56</v>
       </c>
       <c r="AD95" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE95" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE95" s="11" t="s">
+      <c r="AF95" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF95" s="11" t="s">
+      <c r="AG95" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG95" s="11" t="s">
+      <c r="AH95" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH95" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI95" s="11"/>
       <c r="AJ95" s="11"/>
@@ -26086,7 +26086,7 @@
         <v>136</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O96" s="11" t="s">
         <v>103</v>
@@ -26134,19 +26134,19 @@
         <v>56</v>
       </c>
       <c r="AD96" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE96" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE96" s="11" t="s">
+      <c r="AF96" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF96" s="11" t="s">
+      <c r="AG96" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AG96" s="11" t="s">
+      <c r="AH96" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AH96" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AI96" s="11"/>
       <c r="AJ96" s="11"/>
@@ -26198,13 +26198,13 @@
         <v>147</v>
       </c>
       <c r="J97" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K97" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="L97" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="M97" s="11" t="s">
         <v>149</v>
@@ -26225,10 +26225,10 @@
         <v>136</v>
       </c>
       <c r="S97" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="T97" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="T97" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="U97" s="11" t="s">
         <v>107</v>
@@ -26270,19 +26270,19 @@
         <v>56</v>
       </c>
       <c r="AH97" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI97" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AI97" s="11" t="s">
+      <c r="AJ97" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AJ97" s="11" t="s">
+      <c r="AK97" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AK97" s="11" t="s">
+      <c r="AL97" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AL97" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AM97" s="11"/>
       <c r="AN97" s="11"/>
@@ -26330,13 +26330,13 @@
         <v>147</v>
       </c>
       <c r="J98" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K98" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="L98" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="L98" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="M98" s="11" t="s">
         <v>149</v>
@@ -26357,10 +26357,10 @@
         <v>136</v>
       </c>
       <c r="S98" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="T98" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="T98" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="U98" s="11" t="s">
         <v>107</v>
@@ -26402,19 +26402,19 @@
         <v>56</v>
       </c>
       <c r="AH98" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI98" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AI98" s="11" t="s">
+      <c r="AJ98" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AJ98" s="11" t="s">
+      <c r="AK98" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AK98" s="11" t="s">
+      <c r="AL98" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="AL98" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AM98" s="11"/>
       <c r="AN98" s="11"/>
@@ -26462,13 +26462,13 @@
         <v>147</v>
       </c>
       <c r="J99" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="L99" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="L99" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="M99" s="11" t="s">
         <v>151</v>
@@ -26483,34 +26483,34 @@
         <v>154</v>
       </c>
       <c r="Q99" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R99" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R99" s="11" t="s">
+      <c r="S99" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="S99" s="11" t="s">
+      <c r="T99" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="T99" s="11" t="s">
+      <c r="U99" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="U99" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="V99" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="W99" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="W99" s="11" t="s">
+      <c r="X99" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="X99" s="11" t="s">
+      <c r="Y99" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Y99" s="11" t="s">
+      <c r="Z99" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="Z99" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AA99" s="11" t="s">
         <v>76</v>
@@ -26546,13 +26546,13 @@
         <v>56</v>
       </c>
       <c r="AL99" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM99" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AM99" s="11" t="s">
+      <c r="AN99" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AN99" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AO99" s="11" t="s">
         <v>141</v>
@@ -26602,13 +26602,13 @@
         <v>157</v>
       </c>
       <c r="J100" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="L100" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="M100" s="11" t="s">
         <v>151</v>
@@ -26623,34 +26623,34 @@
         <v>154</v>
       </c>
       <c r="Q100" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R100" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R100" s="11" t="s">
+      <c r="S100" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="S100" s="11" t="s">
+      <c r="T100" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="T100" s="11" t="s">
+      <c r="U100" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="U100" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="V100" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="W100" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="W100" s="11" t="s">
+      <c r="X100" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="X100" s="11" t="s">
+      <c r="Y100" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Y100" s="11" t="s">
+      <c r="Z100" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="Z100" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AA100" s="11" t="s">
         <v>76</v>
@@ -26686,13 +26686,13 @@
         <v>56</v>
       </c>
       <c r="AL100" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM100" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AM100" s="11" t="s">
+      <c r="AN100" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AN100" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AO100" s="11" t="s">
         <v>141</v>
@@ -26701,13 +26701,13 @@
         <v>143</v>
       </c>
       <c r="AQ100" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR100" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AR100" s="11" t="s">
+      <c r="AS100" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AS100" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AT100" s="11"/>
       <c r="AU100" s="11"/>
@@ -26748,13 +26748,13 @@
         <v>157</v>
       </c>
       <c r="J101" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="L101" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="M101" s="11" t="s">
         <v>151</v>
@@ -26769,34 +26769,34 @@
         <v>154</v>
       </c>
       <c r="Q101" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R101" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R101" s="11" t="s">
+      <c r="S101" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="S101" s="11" t="s">
+      <c r="T101" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="T101" s="11" t="s">
+      <c r="U101" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="U101" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="V101" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="W101" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="W101" s="11" t="s">
+      <c r="X101" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="X101" s="11" t="s">
+      <c r="Y101" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Y101" s="11" t="s">
+      <c r="Z101" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="Z101" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AA101" s="11" t="s">
         <v>76</v>
@@ -26832,13 +26832,13 @@
         <v>56</v>
       </c>
       <c r="AL101" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM101" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AM101" s="11" t="s">
+      <c r="AN101" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AN101" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AO101" s="11" t="s">
         <v>141</v>
@@ -26847,13 +26847,13 @@
         <v>143</v>
       </c>
       <c r="AQ101" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR101" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AR101" s="11" t="s">
+      <c r="AS101" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AS101" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AT101" s="11"/>
       <c r="AU101" s="11"/>
@@ -26894,13 +26894,13 @@
         <v>157</v>
       </c>
       <c r="J102" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="L102" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="M102" s="11" t="s">
         <v>151</v>
@@ -26915,34 +26915,34 @@
         <v>154</v>
       </c>
       <c r="Q102" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R102" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R102" s="11" t="s">
+      <c r="S102" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="S102" s="11" t="s">
+      <c r="T102" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="T102" s="11" t="s">
+      <c r="U102" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="U102" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="V102" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="W102" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="W102" s="11" t="s">
+      <c r="X102" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="X102" s="11" t="s">
+      <c r="Y102" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Y102" s="11" t="s">
+      <c r="Z102" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="Z102" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="AA102" s="11" t="s">
         <v>76</v>
@@ -26978,13 +26978,13 @@
         <v>56</v>
       </c>
       <c r="AL102" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM102" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AM102" s="11" t="s">
+      <c r="AN102" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AN102" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AO102" s="11" t="s">
         <v>141</v>
@@ -26993,13 +26993,13 @@
         <v>143</v>
       </c>
       <c r="AQ102" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR102" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AR102" s="11" t="s">
+      <c r="AS102" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AS102" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AT102" s="11"/>
       <c r="AU102" s="11"/>
@@ -27031,40 +27031,40 @@
         <v>1</v>
       </c>
       <c r="G103" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="I103" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="J103" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K103" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="L103" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M103" s="11" t="s">
         <v>154</v>
       </c>
       <c r="N103" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O103" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="P103" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="Q103" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Q103" s="11" t="s">
+      <c r="R103" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="R103" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="S103" s="11" t="s">
         <v>76</v>
@@ -27100,22 +27100,22 @@
         <v>56</v>
       </c>
       <c r="AD103" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE103" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE103" s="11" t="s">
+      <c r="AF103" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF103" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="AG103" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH103" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH103" s="11" t="s">
+      <c r="AI103" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI103" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ103" s="11" t="s">
         <v>141</v>
@@ -27124,13 +27124,13 @@
         <v>143</v>
       </c>
       <c r="AL103" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM103" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AM103" s="11" t="s">
+      <c r="AN103" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AN103" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AO103" s="11"/>
       <c r="AP103" s="11"/>
@@ -27167,40 +27167,40 @@
         <v>2</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="I104" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="J104" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K104" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="L104" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M104" s="11" t="s">
         <v>154</v>
       </c>
       <c r="N104" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O104" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="P104" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P104" s="11" t="s">
+      <c r="Q104" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Q104" s="11" t="s">
+      <c r="R104" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="R104" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="S104" s="11" t="s">
         <v>76</v>
@@ -27236,22 +27236,22 @@
         <v>56</v>
       </c>
       <c r="AD104" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE104" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE104" s="11" t="s">
+      <c r="AF104" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF104" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="AG104" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH104" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH104" s="11" t="s">
+      <c r="AI104" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI104" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ104" s="11" t="s">
         <v>141</v>
@@ -27260,13 +27260,13 @@
         <v>143</v>
       </c>
       <c r="AL104" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM104" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AM104" s="11" t="s">
+      <c r="AN104" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AN104" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AO104" s="11"/>
       <c r="AP104" s="11"/>
@@ -27303,40 +27303,40 @@
         <v>3</v>
       </c>
       <c r="G105" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K105" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="L105" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M105" s="11" t="s">
         <v>154</v>
       </c>
       <c r="N105" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O105" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="P105" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="Q105" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Q105" s="11" t="s">
+      <c r="R105" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="R105" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="S105" s="11" t="s">
         <v>76</v>
@@ -27372,22 +27372,22 @@
         <v>56</v>
       </c>
       <c r="AD105" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE105" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE105" s="11" t="s">
+      <c r="AF105" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF105" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="AG105" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH105" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH105" s="11" t="s">
+      <c r="AI105" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI105" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ105" s="11" t="s">
         <v>141</v>
@@ -27396,13 +27396,13 @@
         <v>143</v>
       </c>
       <c r="AL105" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM105" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AM105" s="11" t="s">
+      <c r="AN105" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AN105" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AO105" s="11"/>
       <c r="AP105" s="11"/>
@@ -27439,40 +27439,40 @@
         <v>4</v>
       </c>
       <c r="G106" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K106" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="L106" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M106" s="11" t="s">
         <v>154</v>
       </c>
       <c r="N106" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O106" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="P106" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="Q106" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Q106" s="11" t="s">
+      <c r="R106" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="R106" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="S106" s="11" t="s">
         <v>76</v>
@@ -27508,22 +27508,22 @@
         <v>56</v>
       </c>
       <c r="AD106" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE106" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE106" s="11" t="s">
+      <c r="AF106" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF106" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="AG106" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH106" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH106" s="11" t="s">
+      <c r="AI106" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI106" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ106" s="11" t="s">
         <v>141</v>
@@ -27532,13 +27532,13 @@
         <v>143</v>
       </c>
       <c r="AL106" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM106" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AM106" s="11" t="s">
+      <c r="AN106" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AN106" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AO106" s="11"/>
       <c r="AP106" s="11"/>
@@ -27575,40 +27575,40 @@
         <v>5</v>
       </c>
       <c r="G107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K107" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="L107" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M107" s="11" t="s">
         <v>154</v>
       </c>
       <c r="N107" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O107" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="P107" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="Q107" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="R107" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="R107" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="S107" s="11" t="s">
         <v>76</v>
@@ -27644,22 +27644,22 @@
         <v>56</v>
       </c>
       <c r="AD107" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE107" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE107" s="11" t="s">
+      <c r="AF107" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF107" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="AG107" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH107" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH107" s="11" t="s">
+      <c r="AI107" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI107" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ107" s="11" t="s">
         <v>141</v>
@@ -27668,13 +27668,13 @@
         <v>143</v>
       </c>
       <c r="AL107" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM107" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AM107" s="11" t="s">
+      <c r="AN107" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AN107" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AO107" s="11"/>
       <c r="AP107" s="11"/>
@@ -27711,40 +27711,40 @@
         <v>1</v>
       </c>
       <c r="G108" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="J108" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="L108" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="L108" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="M108" s="11" t="s">
         <v>152</v>
       </c>
       <c r="N108" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O108" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="P108" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="Q108" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Q108" s="11" t="s">
+      <c r="R108" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="R108" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="S108" s="11" t="s">
         <v>76</v>
@@ -27780,22 +27780,22 @@
         <v>56</v>
       </c>
       <c r="AD108" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE108" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE108" s="11" t="s">
+      <c r="AF108" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF108" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="AG108" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH108" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH108" s="11" t="s">
+      <c r="AI108" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI108" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ108" s="11" t="s">
         <v>141</v>
@@ -27804,13 +27804,13 @@
         <v>143</v>
       </c>
       <c r="AL108" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM108" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AM108" s="11" t="s">
+      <c r="AN108" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AN108" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AO108" s="11"/>
       <c r="AP108" s="11"/>
@@ -27847,40 +27847,40 @@
         <v>2</v>
       </c>
       <c r="G109" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="L109" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="L109" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="M109" s="11" t="s">
         <v>152</v>
       </c>
       <c r="N109" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O109" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="P109" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="Q109" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Q109" s="11" t="s">
+      <c r="R109" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="R109" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="S109" s="11" t="s">
         <v>76</v>
@@ -27916,22 +27916,22 @@
         <v>56</v>
       </c>
       <c r="AD109" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE109" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AE109" s="11" t="s">
+      <c r="AF109" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AF109" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="AG109" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH109" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH109" s="11" t="s">
+      <c r="AI109" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AI109" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AJ109" s="11" t="s">
         <v>141</v>
@@ -27940,13 +27940,13 @@
         <v>143</v>
       </c>
       <c r="AL109" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM109" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AM109" s="11" t="s">
+      <c r="AN109" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AN109" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AO109" s="11"/>
       <c r="AP109" s="11"/>
@@ -28016,19 +28016,19 @@
         <v>153</v>
       </c>
       <c r="R110" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S110" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S110" s="11" t="s">
+      <c r="T110" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T110" s="11" t="s">
+      <c r="U110" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U110" s="11" t="s">
+      <c r="V110" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="V110" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="W110" s="11" t="s">
         <v>76</v>
@@ -28064,13 +28064,13 @@
         <v>56</v>
       </c>
       <c r="AH110" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI110" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AI110" s="11" t="s">
+      <c r="AJ110" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AJ110" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AK110" s="11" t="s">
         <v>141</v>
@@ -28079,13 +28079,13 @@
         <v>143</v>
       </c>
       <c r="AM110" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN110" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AN110" s="11" t="s">
+      <c r="AO110" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AO110" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AP110" s="11" t="s">
         <v>134</v>
@@ -28158,19 +28158,19 @@
         <v>153</v>
       </c>
       <c r="R111" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S111" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S111" s="11" t="s">
+      <c r="T111" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T111" s="11" t="s">
+      <c r="U111" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U111" s="11" t="s">
+      <c r="V111" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="V111" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="W111" s="11" t="s">
         <v>76</v>
@@ -28206,13 +28206,13 @@
         <v>56</v>
       </c>
       <c r="AH111" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI111" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AI111" s="11" t="s">
+      <c r="AJ111" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AJ111" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AK111" s="11" t="s">
         <v>141</v>
@@ -28221,13 +28221,13 @@
         <v>143</v>
       </c>
       <c r="AM111" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN111" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AN111" s="11" t="s">
+      <c r="AO111" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AO111" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AP111" s="11" t="s">
         <v>134</v>
@@ -28300,19 +28300,19 @@
         <v>153</v>
       </c>
       <c r="R112" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S112" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S112" s="11" t="s">
+      <c r="T112" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T112" s="11" t="s">
+      <c r="U112" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U112" s="11" t="s">
+      <c r="V112" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="V112" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="W112" s="11" t="s">
         <v>76</v>
@@ -28348,13 +28348,13 @@
         <v>56</v>
       </c>
       <c r="AH112" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI112" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AI112" s="11" t="s">
+      <c r="AJ112" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AJ112" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AK112" s="11" t="s">
         <v>141</v>
@@ -28363,13 +28363,13 @@
         <v>143</v>
       </c>
       <c r="AM112" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN112" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AN112" s="11" t="s">
+      <c r="AO112" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AO112" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AP112" s="11" t="s">
         <v>134</v>
@@ -28442,19 +28442,19 @@
         <v>153</v>
       </c>
       <c r="R113" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S113" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S113" s="11" t="s">
+      <c r="T113" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T113" s="11" t="s">
+      <c r="U113" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U113" s="11" t="s">
+      <c r="V113" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="V113" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="W113" s="11" t="s">
         <v>76</v>
@@ -28490,13 +28490,13 @@
         <v>56</v>
       </c>
       <c r="AH113" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI113" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AI113" s="11" t="s">
+      <c r="AJ113" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AJ113" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AK113" s="11" t="s">
         <v>141</v>
@@ -28505,13 +28505,13 @@
         <v>143</v>
       </c>
       <c r="AM113" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN113" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AN113" s="11" t="s">
+      <c r="AO113" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AO113" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AP113" s="11" t="s">
         <v>134</v>
@@ -28584,19 +28584,19 @@
         <v>153</v>
       </c>
       <c r="R114" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S114" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S114" s="11" t="s">
+      <c r="T114" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T114" s="11" t="s">
+      <c r="U114" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="V114" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="V114" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="W114" s="11" t="s">
         <v>76</v>
@@ -28632,13 +28632,13 @@
         <v>56</v>
       </c>
       <c r="AH114" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI114" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AI114" s="11" t="s">
+      <c r="AJ114" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="AJ114" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="AK114" s="11" t="s">
         <v>141</v>
@@ -28647,13 +28647,13 @@
         <v>143</v>
       </c>
       <c r="AM114" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN114" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AN114" s="11" t="s">
+      <c r="AO114" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AO114" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AP114" s="11" t="s">
         <v>134</v>
